--- a/biology/Zoologie/Bombus_lapidarius/Bombus_lapidarius.xlsx
+++ b/biology/Zoologie/Bombus_lapidarius/Bombus_lapidarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombus lapidarius, le Bourdon des pierres, Bourdon lapidaire ou Cul-brun, est une espèce d'insectes hyménoptères de la famille des Apidae (de Apis : abeille), du genre Bombus et du sous-genre Melanobombus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est noire à l'exception des segments 4 à 6 de l'abdomen orange vif.
 Sa taille est variable selon les catégories mais plutôt petite :
@@ -547,7 +561,9 @@
           <t>Période de vol</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avril à octobre.
 </t>
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies et champs fleuris.
 Ils peuvent construire un nid entre les pierres disjointes des anciens murs de pierre (de relativement vastes espaces peuvent se trouver entre certaines pierres, et les anciens mortiers ne contenant que très peu d'agent liant sont facilement "rongés" par l'insecte).
@@ -610,7 +628,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Commun dans toute l'Europe.
 </t>
@@ -641,7 +661,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nids peuvent comporter jusqu'à 300 ou 400 individus. Comportement très voisin de Bombus pratorum.
 </t>
@@ -672,7 +694,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombus cullumanus
 Sur les autres projets Wikimedia :
